--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1184,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
@@ -1193,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
@@ -1211,10 +1211,10 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>151</v>
@@ -1419,10 +1419,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1512,10 +1512,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1580,18 +1580,18 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
         <v>1.44</v>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1882,46 +1882,46 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
         <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -1933,7 +1933,7 @@
         <v>67</v>
       </c>
       <c r="AP10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2772,7 +2772,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2781,10 +2781,10 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.5</v>
@@ -2805,10 +2805,10 @@
         <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>1.73</v>
@@ -2850,13 +2850,13 @@
         <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3228,16 +3228,16 @@
         <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA20" t="n">
         <v>11</v>
@@ -3246,19 +3246,19 @@
         <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>6.5</v>
@@ -3273,16 +3273,16 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
@@ -3616,13 +3616,13 @@
         <v>1.83</v>
       </c>
       <c r="J23" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3651,10 +3651,10 @@
         <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
         <v>1.62</v>
@@ -3663,22 +3663,22 @@
         <v>2.15</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
         <v>65</v>
       </c>
       <c r="AE23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="n">
         <v>9</v>
@@ -3693,13 +3693,13 @@
         <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AN23" t="n">
         <v>8.75</v>
@@ -3711,7 +3711,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -701,10 +701,10 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
@@ -746,10 +746,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -791,13 +791,13 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -861,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
         <v>1.97</v>
@@ -887,7 +887,7 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z3" t="n">
         <v>2</v>
@@ -981,10 +981,10 @@
         <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -993,13 +993,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1076,10 +1076,10 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1269,13 +1269,13 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
         <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1284,10 +1284,10 @@
         <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.75</v>
@@ -1298,7 +1298,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V6" t="n">
         <v>1.38</v>
@@ -1316,7 +1316,7 @@
         <v>2.12</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>10.75</v>
@@ -1349,10 +1349,10 @@
         <v>350</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN6" t="n">
         <v>11</v>
@@ -2003,18 +2003,18 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
         <v>1.4</v>
@@ -2114,16 +2114,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2152,10 +2152,10 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
         <v>1.53</v>
@@ -2164,10 +2164,10 @@
         <v>2.38</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
@@ -2188,22 +2188,22 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>67</v>
       </c>
       <c r="AK12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM12" t="n">
         <v>11</v>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2258,43 +2258,117 @@
           <t>Chennaiyin</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
     </row>
@@ -2330,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2481,7 +2555,7 @@
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J15" t="n">
         <v>4.33</v>
@@ -2616,7 +2690,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>8.5</v>
@@ -2763,7 +2837,7 @@
         <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J17" t="n">
         <v>5.5</v>
@@ -2847,7 +2921,7 @@
         <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL17" t="n">
         <v>9</v>
@@ -3043,7 +3117,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
@@ -3073,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R19" t="n">
         <v>3.4</v>
@@ -3184,28 +3258,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -3240,22 +3314,22 @@
         <v>2.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
@@ -3273,16 +3347,16 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
@@ -3466,7 +3540,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
@@ -3645,7 +3719,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="V23" t="n">
         <v>1.45</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -701,10 +701,10 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -746,10 +746,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -849,7 +849,7 @@
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>3.4</v>
@@ -867,18 +867,18 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
@@ -914,16 +914,16 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1070,7 +1070,7 @@
         <v>9.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
         <v>11</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1.08</v>
@@ -1157,22 +1157,22 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z5" t="n">
         <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2.05</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1193,10 +1193,10 @@
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1220,7 +1220,7 @@
         <v>151</v>
       </c>
       <c r="AP5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
@@ -1419,10 +1419,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1461,16 +1461,16 @@
         <v>1.57</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1494,28 +1494,28 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>51</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -1562,7 +1562,7 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>3.5</v>
@@ -1571,7 +1571,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1600,13 +1600,13 @@
         <v>2.63</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1615,16 +1615,16 @@
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1979,13 +1979,13 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -1997,16 +1997,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2047,10 +2047,10 @@
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2065,7 +2065,7 @@
         <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
@@ -2077,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
         <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>2.55</v>
@@ -2126,7 +2126,7 @@
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
         <v>3.4</v>
@@ -2158,10 +2158,10 @@
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y12" t="n">
         <v>2.05</v>
@@ -2209,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>26</v>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="13">
@@ -2259,40 +2259,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2301,28 +2301,28 @@
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2331,16 +2331,16 @@
         <v>17</v>
       </c>
       <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
         <v>15</v>
       </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2349,10 +2349,10 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -2364,10 +2364,10 @@
         <v>41</v>
       </c>
       <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.91</v>
@@ -2458,22 +2458,22 @@
         <v>3.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA14" t="n">
         <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2497,7 +2497,7 @@
         <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -2512,7 +2512,7 @@
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
         <v>4.33</v>
@@ -2608,16 +2608,16 @@
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -2635,10 +2635,10 @@
         <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM15" t="n">
         <v>9</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H16" t="n">
         <v>8.5</v>
@@ -2837,7 +2837,7 @@
         <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="J17" t="n">
         <v>5.5</v>
@@ -2855,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.5</v>
@@ -2867,16 +2867,16 @@
         <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
@@ -2976,63 +2976,63 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -3047,13 +3047,13 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3065,19 +3065,19 @@
         <v>151</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>29</v>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
@@ -3126,13 +3126,13 @@
         <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3147,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
         <v>3.4</v>
@@ -3179,7 +3179,7 @@
         <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>8</v>
@@ -3188,19 +3188,19 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK19" t="n">
         <v>251</v>
@@ -3282,24 +3282,24 @@
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
         <v>1.36</v>
@@ -3399,16 +3399,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>2.05</v>
@@ -3417,30 +3417,30 @@
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3449,10 +3449,10 @@
         <v>2.63</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
@@ -3464,46 +3464,46 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="n">
         <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3543,10 +3543,10 @@
         <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -3561,7 +3561,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3590,16 +3590,16 @@
         <v>2.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3614,10 +3614,10 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -716,34 +716,34 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -758,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -893,7 +893,7 @@
         <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -926,13 +926,13 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1067,7 +1067,7 @@
         <v>251</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1149,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1169,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1184,13 +1184,13 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>29</v>
@@ -1199,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1214,16 +1214,16 @@
         <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP5" t="n">
         <v>81</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1401,28 +1401,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1431,13 +1431,13 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>1.23</v>
@@ -1455,25 +1455,25 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1482,40 +1482,40 @@
         <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>51</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1571,7 +1571,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1832,22 +1832,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1862,10 +1862,10 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1918,19 +1918,19 @@
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP10" t="n">
         <v>41</v>
@@ -1979,7 +1979,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2050,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2138,16 +2138,16 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2164,16 +2164,16 @@
         <v>2.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2182,7 +2182,7 @@
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="13">
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2322,7 +2322,7 @@
         <v>9.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>8.5</v>
@@ -2349,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2364,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2549,28 +2549,28 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2608,16 +2608,16 @@
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
@@ -2638,7 +2638,7 @@
         <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
         <v>9</v>
@@ -2647,7 +2647,7 @@
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -2773,19 +2773,19 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
         <v>700</v>
       </c>
       <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>151</v>
@@ -2849,10 +2849,10 @@
         <v>1.91</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -2879,10 +2879,10 @@
         <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y17" t="n">
         <v>1.73</v>
@@ -2921,19 +2921,19 @@
         <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN17" t="n">
         <v>8.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -2976,28 +2976,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3035,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>9.5</v>
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3120,7 +3120,7 @@
         <v>1.17</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I19" t="n">
         <v>12</v>
@@ -3129,7 +3129,7 @@
         <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
         <v>10</v>
@@ -3147,10 +3147,10 @@
         <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3167,10 +3167,10 @@
         <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA19" t="n">
         <v>12</v>
@@ -3182,7 +3182,7 @@
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3203,22 +3203,22 @@
         <v>67</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>151</v>
       </c>
       <c r="AP19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
@@ -3417,30 +3417,30 @@
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -707,7 +707,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,22 +728,22 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -896,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -929,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.45</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1287,7 +1287,7 @@
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
         <v>1.75</v>
@@ -1313,22 +1313,22 @@
         <v>1.65</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1337,34 +1337,34 @@
         <v>7.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AO6" t="n">
         <v>50</v>
       </c>
-      <c r="AK6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>40</v>
-      </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
@@ -1841,19 +1841,19 @@
         <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1918,7 +1918,7 @@
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL10" t="n">
         <v>12</v>
@@ -2003,10 +2003,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2176,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2295,10 +2295,10 @@
         <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>2.5</v>
@@ -2349,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2549,13 +2549,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -2567,10 +2567,10 @@
         <v>2.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2641,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
@@ -2705,19 +2705,19 @@
         <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
         <v>1.29</v>
@@ -2728,10 +2728,10 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>1.17</v>
@@ -2740,10 +2740,10 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
@@ -2752,7 +2752,7 @@
         <v>8.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>8</v>
@@ -2773,7 +2773,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK16" t="n">
         <v>700</v>
@@ -2791,7 +2791,7 @@
         <v>151</v>
       </c>
       <c r="AP16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -2849,10 +2849,10 @@
         <v>1.91</v>
       </c>
       <c r="M17" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -2994,10 +2994,10 @@
         <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3006,10 +3006,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3681,48 +3681,48 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
         <v>1.36</v>
@@ -3731,49 +3731,49 @@
         <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE23" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH23" t="n">
         <v>7.6</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AN23" t="n">
         <v>8.75</v>
@@ -3782,10 +3782,10 @@
         <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -728,22 +728,22 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -782,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,16 +881,16 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -926,7 +926,7 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1052,7 +1052,7 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H5" t="n">
         <v>8</v>
@@ -1131,7 +1131,7 @@
         <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
         <v>9.5</v>
@@ -1181,7 +1181,7 @@
         <v>9.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1263,13 +1263,13 @@
         <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="K6" t="n">
         <v>2.18</v>
@@ -1281,33 +1281,33 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q6" t="n">
         <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y6" t="n">
         <v>1.65</v>
@@ -1316,10 +1316,10 @@
         <v>2.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1331,22 +1331,22 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH6" t="n">
         <v>6.8</v>
       </c>
       <c r="AI6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL6" t="n">
         <v>11.75</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1419,10 +1419,10 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1437,7 +1437,7 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.23</v>
@@ -1455,10 +1455,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1473,16 +1473,16 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -1550,22 +1550,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1606,10 +1606,10 @@
         <v>1.91</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1639,7 +1639,7 @@
         <v>251</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1856,16 +1856,16 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2176,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2188,7 +2188,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
@@ -2215,16 +2215,16 @@
         <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13">
@@ -2262,19 +2262,19 @@
         <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2328,7 +2328,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2349,13 +2349,13 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2549,48 +2549,48 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
         <v>1.33</v>
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -2614,25 +2614,25 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE15" t="n">
         <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
         <v>151</v>
@@ -2693,16 +2693,16 @@
         <v>1.13</v>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -2711,7 +2711,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
@@ -2740,28 +2740,28 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
         <v>29</v>
@@ -2779,7 +2779,7 @@
         <v>700</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>67</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -3032,7 +3032,7 @@
         <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>11</v>
@@ -3053,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3117,34 +3117,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="n">
         <v>1.3</v>
@@ -3191,13 +3191,13 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>67</v>
@@ -3215,7 +3215,7 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP19" t="n">
         <v>81</v>
@@ -3399,13 +3399,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3417,16 +3417,16 @@
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
         <v>2.05</v>
@@ -3455,7 +3455,7 @@
         <v>1.83</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
@@ -3549,7 +3549,7 @@
         <v>6.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -3570,18 +3570,18 @@
         <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3605,10 +3605,10 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3629,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -3690,7 +3690,7 @@
         <v>1.85</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K23" t="n">
         <v>2.22</v>
@@ -3702,39 +3702,39 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA23" t="n">
         <v>11.75</v>
@@ -3755,7 +3755,7 @@
         <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH23" t="n">
         <v>7.6</v>
@@ -3764,13 +3764,13 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3779,13 +3779,13 @@
         <v>8.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -698,7 +698,7 @@
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -728,16 +728,16 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -746,10 +746,10 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -758,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -896,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -923,25 +923,25 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1008,10 +1008,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1287,7 +1287,7 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
         <v>1.75</v>
@@ -1319,16 +1319,16 @@
         <v>8.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
@@ -1349,7 +1349,7 @@
         <v>350</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM6" t="n">
         <v>19.5</v>
@@ -1361,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="AP6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>32</v>
@@ -1419,10 +1419,10 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1431,10 +1431,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>4.1</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1715,45 +1715,45 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
         <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL9" t="n">
         <v>8.5</v>
@@ -1786,16 +1786,16 @@
         <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1832,34 +1832,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1882,10 +1882,10 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1903,37 +1903,37 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL10" t="n">
         <v>12</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP10" t="n">
         <v>51</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>41</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -1979,7 +1979,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2023,13 +2023,13 @@
         <v>2.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -2050,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2059,7 +2059,7 @@
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL11" t="n">
         <v>7.5</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>2.38</v>
@@ -2313,10 +2313,10 @@
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
         <v>9.5</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2497,7 +2497,7 @@
         <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -2512,7 +2512,7 @@
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2552,25 +2552,25 @@
         <v>4.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>2.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2579,10 +2579,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2593,22 +2593,22 @@
         <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2620,10 +2620,10 @@
         <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>8</v>
@@ -2632,16 +2632,16 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
         <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
@@ -2776,7 +2776,7 @@
         <v>67</v>
       </c>
       <c r="AK16" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -3138,7 +3138,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
         <v>1.08</v>
@@ -3429,18 +3429,18 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3558,10 +3558,10 @@
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3681,22 +3681,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J23" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3705,10 +3705,10 @@
         <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="n">
         <v>1.75</v>
@@ -3719,16 +3719,16 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V23" t="n">
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Y23" t="n">
         <v>1.7</v>
@@ -3743,7 +3743,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>60</v>
@@ -3752,25 +3752,25 @@
         <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="n">
         <v>8.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3779,10 +3779,10 @@
         <v>8.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -707,7 +707,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -716,22 +716,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -740,25 +740,25 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -782,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -981,10 +981,10 @@
         <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1002,24 +1002,24 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -1064,10 +1064,10 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1140,7 +1140,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O5" t="n">
         <v>1.08</v>
@@ -1266,22 +1266,22 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.55</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1304,25 +1304,25 @@
         <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Y6" t="n">
         <v>1.65</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>10.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
@@ -1334,7 +1334,7 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH6" t="n">
         <v>6.8</v>
@@ -1349,7 +1349,7 @@
         <v>350</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM6" t="n">
         <v>19.5</v>
@@ -1361,10 +1361,10 @@
         <v>50</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1431,10 +1431,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>4.1</v>
@@ -1449,7 +1449,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -1594,10 +1594,10 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y8" t="n">
         <v>1.8</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1735,7 +1735,7 @@
         <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>2.75</v>
@@ -1756,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -1783,13 +1783,13 @@
         <v>8.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>9.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -1876,10 +1876,10 @@
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y10" t="n">
         <v>2.05</v>
@@ -2017,7 +2017,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X11" t="n">
         <v>2.75</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2158,7 +2158,7 @@
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>2.25</v>
@@ -2176,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2215,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2259,19 +2259,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>4.33</v>
@@ -2289,16 +2289,16 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
         <v>2.5</v>
@@ -2307,16 +2307,16 @@
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
         <v>3.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA13" t="n">
         <v>9.5</v>
@@ -2340,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2413,7 +2413,7 @@
         <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
@@ -2422,13 +2422,13 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
@@ -2449,7 +2449,7 @@
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2549,31 +2549,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
@@ -2587,22 +2587,22 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
@@ -2620,7 +2620,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2641,13 +2641,13 @@
         <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>9.5</v>
@@ -2699,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="K16" t="n">
         <v>3.25</v>
@@ -2707,31 +2707,27 @@
       <c r="L16" t="n">
         <v>10</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
         <v>1.17</v>
@@ -2831,40 +2827,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
         <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="J17" t="n">
         <v>5.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
@@ -2873,10 +2869,10 @@
         <v>2.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
         <v>1.25</v>
@@ -2891,16 +2887,16 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE17" t="n">
         <v>41</v>
@@ -2909,7 +2905,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -2930,10 +2926,10 @@
         <v>8.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -2994,13 +2990,13 @@
         <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>8.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -3017,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
@@ -3117,7 +3113,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H19" t="n">
         <v>9</v>
@@ -3141,7 +3137,7 @@
         <v>26</v>
       </c>
       <c r="O19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P19" t="n">
         <v>8</v>
@@ -3155,10 +3151,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W19" t="n">
         <v>1.18</v>
@@ -3276,13 +3272,13 @@
         <v>2.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
         <v>3.5</v>
@@ -3299,7 +3295,7 @@
         <v>3.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
         <v>1.36</v>
@@ -3417,22 +3413,22 @@
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3440,7 +3436,7 @@
         <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3540,7 +3536,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
@@ -3558,13 +3554,13 @@
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
         <v>3.4</v>
@@ -3581,7 +3577,7 @@
         <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3681,69 +3677,69 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J23" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L23" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X23" t="n">
         <v>2.82</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X23" t="n">
-        <v>2.92</v>
       </c>
       <c r="Y23" t="n">
         <v>1.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA23" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
         <v>60</v>
@@ -3752,25 +3748,25 @@
         <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AI23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AM23" t="n">
         <v>10</v>
@@ -3785,7 +3781,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -861,24 +861,24 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -1140,7 +1140,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1.08</v>
@@ -1169,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1223,7 +1223,7 @@
         <v>81</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1431,10 +1431,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>4.1</v>
@@ -1449,7 +1449,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
@@ -1594,10 +1594,10 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y8" t="n">
         <v>1.8</v>
@@ -1612,13 +1612,13 @@
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1645,13 +1645,13 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1721,21 +1721,21 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>2.75</v>
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -1876,28 +1876,28 @@
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1909,7 +1909,7 @@
         <v>8.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -1921,7 +1921,7 @@
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -1997,16 +1997,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2017,7 +2017,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>2.75</v>
@@ -2114,16 +2114,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
@@ -2158,7 +2158,7 @@
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
         <v>2.25</v>
@@ -2209,10 +2209,10 @@
         <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2307,7 +2307,7 @@
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
         <v>3.4</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2413,7 +2413,7 @@
         <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
@@ -2422,13 +2422,13 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
@@ -2449,7 +2449,7 @@
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2458,16 +2458,16 @@
         <v>3.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA14" t="n">
         <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
@@ -2555,57 +2555,61 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
@@ -2620,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2638,22 +2642,22 @@
         <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2690,7 +2694,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H16" t="n">
         <v>9.5</v>
@@ -2699,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.25</v>
@@ -2707,10 +2711,14 @@
       <c r="L16" t="n">
         <v>10</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
       <c r="O16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
         <v>7.5</v>
@@ -2724,7 +2732,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
         <v>2.1</v>
@@ -2833,7 +2841,7 @@
         <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
         <v>5.5</v>
@@ -2842,19 +2850,19 @@
         <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.44</v>
@@ -2872,7 +2880,7 @@
         <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
         <v>1.25</v>
@@ -2990,13 +2998,13 @@
         <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>8.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -3013,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
@@ -3113,7 +3121,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H19" t="n">
         <v>9</v>
@@ -3137,10 +3145,10 @@
         <v>26</v>
       </c>
       <c r="O19" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
         <v>1.3</v>
@@ -3151,10 +3159,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>1.18</v>
@@ -3163,16 +3171,16 @@
         <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3181,13 +3189,13 @@
         <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3199,7 +3207,7 @@
         <v>67</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3217,7 +3225,7 @@
         <v>81</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3254,10 +3262,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>2.1</v>
@@ -3266,28 +3274,28 @@
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>2.63</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3295,25 +3303,25 @@
         <v>3.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3322,13 +3330,13 @@
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>6.5</v>
@@ -3343,13 +3351,13 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -3413,13 +3421,13 @@
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>3.25</v>
@@ -3436,7 +3444,7 @@
         <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3536,7 +3544,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
@@ -3554,13 +3562,13 @@
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
         <v>3.4</v>
@@ -3577,7 +3585,7 @@
         <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -701,7 +701,7 @@
         <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
@@ -713,7 +713,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -746,10 +746,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
@@ -840,25 +840,25 @@
         <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -867,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -911,28 +911,28 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -984,7 +984,7 @@
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -993,13 +993,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1008,10 +1008,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1022,19 +1022,19 @@
         <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>1.5</v>
@@ -1134,7 +1134,7 @@
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1143,10 +1143,10 @@
         <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
         <v>1.29</v>
@@ -1169,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1196,13 +1196,13 @@
         <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>251</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1223,7 +1223,7 @@
         <v>81</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1304,37 +1304,37 @@
         <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y6" t="n">
         <v>1.65</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH6" t="n">
         <v>6.8</v>
@@ -1343,16 +1343,16 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
         <v>350</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="n">
         <v>11.75</v>
@@ -1361,10 +1361,10 @@
         <v>50</v>
       </c>
       <c r="AP6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.4</v>
@@ -1416,55 +1416,55 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
         <v>6.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
@@ -1482,10 +1482,10 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -1580,10 +1580,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1735,31 +1735,31 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>29</v>
@@ -1783,16 +1783,16 @@
         <v>8.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>26</v>
@@ -1835,7 +1835,7 @@
         <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.75</v>
@@ -1844,7 +1844,7 @@
         <v>2.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1853,7 +1853,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1862,18 +1862,18 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
         <v>1.44</v>
@@ -1882,16 +1882,16 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -1900,25 +1900,25 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -1997,16 +1997,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2129,13 +2129,13 @@
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2147,7 +2147,7 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         <v>501</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="13">
@@ -2259,31 +2259,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
         <v>4.5</v>
@@ -2304,7 +2304,7 @@
         <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
         <v>1.3</v>
@@ -2319,7 +2319,7 @@
         <v>2.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
         <v>10</v>
@@ -2328,7 +2328,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2349,13 +2349,13 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2422,13 +2422,13 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
@@ -2449,7 +2449,7 @@
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2555,22 +2555,22 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2585,10 +2585,10 @@
         <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2603,13 +2603,13 @@
         <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
@@ -2630,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -2642,22 +2642,22 @@
         <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2838,7 +2838,7 @@
         <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>1.4</v>
@@ -2847,16 +2847,16 @@
         <v>5.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
         <v>1.83</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O17" t="n">
         <v>1.13</v>
@@ -2865,10 +2865,10 @@
         <v>5.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
@@ -2877,22 +2877,22 @@
         <v>2.03</v>
       </c>
       <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z17" t="n">
         <v>2.1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -2901,7 +2901,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
         <v>67</v>
@@ -2910,10 +2910,10 @@
         <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -2922,22 +2922,22 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
         <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -2980,22 +2980,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3036,10 +3036,10 @@
         <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>9.5</v>
@@ -3048,7 +3048,7 @@
         <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>26</v>
@@ -3057,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3069,16 +3069,16 @@
         <v>151</v>
       </c>
       <c r="AL18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN18" t="n">
         <v>11</v>
       </c>
-      <c r="AM18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>12</v>
-      </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3262,63 +3262,63 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -3327,31 +3327,31 @@
         <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="n">
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM20" t="n">
         <v>10</v>
@@ -3363,10 +3363,10 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3403,28 +3403,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -3433,10 +3433,10 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
         <v>1.83</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3544,16 +3544,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -3562,10 +3562,10 @@
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3574,18 +3574,18 @@
         <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3594,34 +3594,34 @@
         <v>2.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>
@@ -3633,7 +3633,7 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J23" t="n">
         <v>4.15</v>
@@ -3703,51 +3703,51 @@
         <v>2.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="AA23" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>60</v>
@@ -3756,40 +3756,40 @@
         <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH23" t="n">
         <v>7.2</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN23" t="n">
         <v>8.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -746,10 +746,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -867,24 +867,24 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y3" t="n">
         <v>1.62</v>
@@ -899,22 +899,22 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -923,7 +923,7 @@
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -932,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -984,7 +984,7 @@
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -999,7 +999,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1008,18 +1008,18 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1143,10 +1143,10 @@
         <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
         <v>1.29</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
         <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1287,7 +1287,7 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q6" t="n">
         <v>1.75</v>
@@ -1298,7 +1298,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="V6" t="n">
         <v>1.39</v>
@@ -1307,7 +1307,7 @@
         <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Y6" t="n">
         <v>1.65</v>
@@ -1322,34 +1322,34 @@
         <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
         <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>7.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
         <v>350</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM6" t="n">
         <v>20</v>
@@ -1361,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="AP6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>32</v>
@@ -1401,19 +1401,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1425,40 +1425,40 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA7" t="n">
         <v>4.75</v>
@@ -1470,16 +1470,16 @@
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1494,16 +1494,16 @@
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP7" t="n">
         <v>51</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1580,10 +1580,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1715,24 +1715,24 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
@@ -1747,19 +1747,19 @@
         <v>2.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>29</v>
@@ -1835,16 +1835,16 @@
         <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -1856,24 +1856,24 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
         <v>1.44</v>
@@ -1882,16 +1882,16 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -1900,25 +1900,25 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>67</v>
       </c>
       <c r="AK10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -2003,10 +2003,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13">
@@ -2259,103 +2259,103 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2364,10 +2364,10 @@
         <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2422,13 +2422,13 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
@@ -2449,7 +2449,7 @@
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2549,19 +2549,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
@@ -2585,10 +2585,10 @@
         <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
         <v>2.5</v>
@@ -2654,10 +2654,10 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O16" t="n">
         <v>1.07</v>
@@ -2744,58 +2744,58 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
       </c>
       <c r="AB16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
         <v>8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>151</v>
       </c>
       <c r="AP16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H17" t="n">
         <v>5.5</v>
@@ -2853,22 +2853,22 @@
         <v>1.83</v>
       </c>
       <c r="M17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
@@ -2877,10 +2877,10 @@
         <v>2.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>1.22</v>
@@ -2889,10 +2889,10 @@
         <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -2904,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE17" t="n">
         <v>41</v>
@@ -2913,25 +2913,25 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="n">
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN17" t="n">
         <v>9</v>
@@ -2943,7 +2943,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2980,22 +2980,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3030,25 +3030,25 @@
         <v>3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
         <v>9</v>
       </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>26</v>
@@ -3057,10 +3057,10 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -3069,22 +3069,22 @@
         <v>151</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3124,16 +3124,16 @@
         <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
         <v>11</v>
@@ -3151,10 +3151,10 @@
         <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3171,13 +3171,13 @@
         <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
         <v>7.5</v>
@@ -3189,7 +3189,7 @@
         <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>67</v>
       </c>
       <c r="AK19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3219,13 +3219,13 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP19" t="n">
         <v>81</v>
       </c>
       <c r="AQ19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3265,25 +3265,25 @@
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3306,19 +3306,19 @@
         <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -3336,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -3351,10 +3351,10 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN20" t="n">
         <v>9.5</v>
@@ -3366,7 +3366,7 @@
         <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3403,22 +3403,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3462,16 +3462,16 @@
         <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3492,10 +3492,10 @@
         <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN21" t="n">
         <v>10</v>
@@ -3562,10 +3562,10 @@
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
         <v>1.93</v>
@@ -3700,51 +3700,51 @@
         <v>2.15</v>
       </c>
       <c r="L23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AA23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC23" t="n">
         <v>13</v>
@@ -3756,40 +3756,40 @@
         <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AM23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN23" t="n">
         <v>8.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.63</v>
@@ -707,7 +707,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -746,10 +746,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -758,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -861,10 +861,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -887,10 +887,10 @@
         <v>3.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -926,10 +926,10 @@
         <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -987,7 +987,7 @@
         <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -996,10 +996,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1008,10 +1008,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1052,10 +1052,10 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1064,10 +1064,10 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1263,19 +1263,19 @@
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1284,87 +1284,87 @@
         <v>7.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>7.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN6" t="n">
         <v>11.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
@@ -1416,19 +1416,19 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
         <v>7</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.5</v>
@@ -1455,10 +1455,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA7" t="n">
         <v>4.75</v>
@@ -1482,7 +1482,7 @@
         <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1506,16 +1506,16 @@
         <v>81</v>
       </c>
       <c r="AP7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1565,7 +1565,7 @@
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1642,7 +1642,7 @@
         <v>8.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
@@ -1721,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1741,13 +1741,13 @@
         <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1765,10 +1765,10 @@
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
@@ -1795,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1847,13 +1847,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1882,10 +1882,10 @@
         <v>2.63</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
@@ -1906,22 +1906,22 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="n">
         <v>501</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -2003,10 +2003,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>7.5</v>
@@ -2422,34 +2422,34 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2458,16 +2458,16 @@
         <v>3.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
@@ -2482,13 +2482,13 @@
         <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2497,7 +2497,7 @@
         <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -2512,7 +2512,7 @@
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2700,7 +2700,7 @@
         <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1.44</v>
@@ -2715,7 +2715,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
         <v>1.07</v>
@@ -2753,10 +2753,10 @@
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>8</v>
@@ -2783,13 +2783,13 @@
         <v>500</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>151</v>
@@ -2835,40 +2835,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>2.63</v>
       </c>
       <c r="L17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="M17" t="n">
-        <v>26</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.78</v>
@@ -2877,10 +2877,10 @@
         <v>2.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
         <v>1.22</v>
@@ -2889,61 +2889,61 @@
         <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE17" t="n">
         <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN17" t="n">
         <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2980,48 +2980,48 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
@@ -3030,22 +3030,22 @@
         <v>3</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3054,13 +3054,13 @@
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -3072,19 +3072,19 @@
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3124,16 +3124,16 @@
         <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
         <v>11</v>
@@ -3142,7 +3142,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
         <v>1.1</v>
@@ -3159,10 +3159,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
         <v>1.18</v>
@@ -3177,7 +3177,7 @@
         <v>1.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>7.5</v>
@@ -3210,7 +3210,7 @@
         <v>301</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>67</v>
@@ -3219,13 +3219,13 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP19" t="n">
         <v>81</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3280,10 +3280,10 @@
         <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3421,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -3433,10 +3433,10 @@
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -3574,18 +3574,18 @@
         <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3685,22 +3685,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="J23" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="K23" t="n">
         <v>2.15</v>
       </c>
       <c r="L23" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3718,78 +3718,78 @@
         <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG23" t="n">
         <v>8.25</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AM23" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -716,34 +716,34 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -755,25 +755,25 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
         <v>21</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -785,10 +785,10 @@
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
@@ -797,7 +797,7 @@
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -861,10 +861,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
@@ -875,34 +875,34 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -911,22 +911,22 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -935,13 +935,13 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1002,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1016,10 +1016,10 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
@@ -1034,28 +1034,28 @@
         <v>1.95</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1067,22 +1067,22 @@
         <v>351</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
         <v>29</v>
       </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1149,24 +1149,24 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
         <v>1.8</v>
@@ -1178,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1193,16 +1193,16 @@
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>251</v>
@@ -1211,19 +1211,19 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP5" t="n">
         <v>81</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1404,19 +1404,19 @@
         <v>1.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1431,43 +1431,43 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>2.5</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.75</v>
       </c>
       <c r="AB7" t="n">
         <v>6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1479,13 +1479,13 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>101</v>
@@ -1500,22 +1500,22 @@
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>81</v>
       </c>
       <c r="AP7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -1550,22 +1550,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1612,19 +1612,19 @@
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1642,16 +1642,16 @@
         <v>8.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1715,24 +1715,24 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
@@ -1753,22 +1753,22 @@
         <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
@@ -1795,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1850,10 +1850,10 @@
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1862,18 +1862,18 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.44</v>
@@ -2003,18 +2003,18 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
         <v>1.4</v>
@@ -2062,7 +2062,7 @@
         <v>201</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2114,105 +2114,105 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>67</v>
       </c>
       <c r="AK12" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2221,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="13">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
@@ -2413,19 +2413,19 @@
         <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2434,10 +2434,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>2.03</v>
@@ -2452,10 +2452,10 @@
         <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
         <v>1.91</v>
@@ -2476,7 +2476,7 @@
         <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2497,7 +2497,7 @@
         <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -2998,10 +2998,10 @@
         <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -3121,13 +3121,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H19" t="n">
         <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
         <v>1.44</v>
@@ -3136,13 +3136,13 @@
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
         <v>1.1</v>
@@ -3159,10 +3159,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>1.18</v>
@@ -3171,10 +3171,10 @@
         <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3186,31 +3186,31 @@
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>67</v>
@@ -3544,63 +3544,63 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R22" t="n">
         <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>6.5</v>
@@ -3612,34 +3612,34 @@
         <v>9.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
         <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,144 +526,144 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over35_FT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under35_FT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over2_FT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under2_FT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over3_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under3_FT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zcyYxbDN</t>
+          <t>jBtlw776</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,128 +683,132 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X2" t="n">
         <v>3.5</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM2" t="n">
         <v>23</v>
       </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AN2" t="n">
         <v>15</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AO2" t="n">
         <v>41</v>
       </c>
-      <c r="AI2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vVsPvKrB</t>
+          <t>zcyYxbDN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -824,128 +828,128 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.36</v>
       </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2.1</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
         <v>13</v>
       </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7</v>
-      </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WSM3Xyyo</t>
+          <t>vVsPvKrB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -955,7 +959,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -965,79 +969,75 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S4" t="n">
         <v>1.73</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>1.17</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.8</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>1.95</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1046,47 +1046,51 @@
         <v>26</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
         <v>29</v>
       </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AQ4" t="n">
         <v>41</v>
       </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fD4Zr5DG</t>
+          <t>WSM3Xyyo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1096,138 +1100,138 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.95</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AA5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
       </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>60</v>
-      </c>
       <c r="AI5" t="n">
-        <v>450</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.75</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QuaAJDp9</t>
+          <t>fD4Zr5DG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1237,146 +1241,138 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH6" t="n">
         <v>7</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL6" t="n">
         <v>11</v>
       </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>51</v>
+        <v>11.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.83</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6s1oHUFl</t>
+          <t>QuaAJDp9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1386,138 +1382,146 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="Y7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="n">
         <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MsJy1lkA</t>
+          <t>6s1oHUFl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1537,128 +1541,128 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
         <v>3.75</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="V8" t="n">
         <v>1.29</v>
       </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="Y8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>26</v>
-      </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>13</v>
       </c>
-      <c r="AH8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>201</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="AL8" t="n">
         <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0bH6WDtQ</t>
+          <t>MsJy1lkA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1673,133 +1677,133 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN9" t="n">
         <v>9</v>
       </c>
-      <c r="AF9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AO9" t="n">
         <v>21</v>
       </c>
-      <c r="AH9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26</v>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W0WJwVmg</t>
+          <t>0bH6WDtQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1819,128 +1823,128 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>21</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AJ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL10" t="n">
         <v>13</v>
       </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AD10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AN10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP10" t="n">
         <v>51</v>
       </c>
-      <c r="AI10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06kN3O6M</t>
+          <t>W0WJwVmg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1960,124 +1964,120 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="V11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="X11" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.95</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>51</v>
       </c>
-      <c r="AI11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7</v>
-      </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.78</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.1</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2085,7 +2085,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6sPcLu4S</t>
+          <t>06kN3O6M</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2095,142 +2095,142 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bengaluru FC</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chennaiyin</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
         <v>8</v>
       </c>
-      <c r="Z12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI12" t="n">
         <v>17</v>
       </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AJ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM12" t="n">
         <v>11</v>
       </c>
-      <c r="AF12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>34</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ptrpePgJ</t>
+          <t>6sPcLu4S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2240,142 +2240,142 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Bengaluru FC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.95</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
         <v>6.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="AI13" t="n">
         <v>15</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL13" t="n">
         <v>12</v>
       </c>
-      <c r="AD13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AM13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN13" t="n">
         <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>51</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Y5Wfy76c</t>
+          <t>ptrpePgJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2385,47 +2385,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2434,93 +2434,93 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.3</v>
+        <v>2.63</v>
       </c>
       <c r="V14" t="n">
-        <v>3.4</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>1.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>1.91</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>51</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AK14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
         <v>34</v>
       </c>
-      <c r="AD14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>12</v>
-      </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.8</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6uGR0QUp</t>
+          <t>Y5Wfy76c</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2540,128 +2540,132 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.14</v>
+        <v>4.75</v>
       </c>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.17</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AE15" t="n">
         <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>151</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>67</v>
+        <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ni3gJYpC</t>
+          <t>6uGR0QUp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2671,7 +2675,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2681,132 +2685,128 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.33</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
         <v>12</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL16" t="n">
         <v>41</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP16" t="n">
         <v>67</v>
       </c>
-      <c r="AC16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AQ16" t="n">
         <v>51</v>
       </c>
-      <c r="AI16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2.03</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tIfUKoMG</t>
+          <t>ni3gJYpC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2826,128 +2826,132 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
+        <v>12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AO17" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>21</v>
       </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27yfAodc</t>
+          <t>tIfUKoMG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2957,138 +2961,138 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
         <v>9</v>
       </c>
-      <c r="I18" t="n">
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>13</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL18" t="n">
         <v>11</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>26</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN18" t="n">
         <v>11</v>
       </c>
-      <c r="Z18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AO18" t="n">
         <v>29</v>
       </c>
-      <c r="AH18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KQEtdaV9</t>
+          <t>27yfAodc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3098,138 +3102,138 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>1.41</v>
       </c>
       <c r="K19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="W19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
         <v>7.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH19" t="n">
         <v>17</v>
       </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AI19" t="n">
         <v>29</v>
       </c>
-      <c r="AD19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>151</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.5</v>
+        <v>351</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nyaLlHNq</t>
+          <t>KQEtdaV9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3249,31 +3253,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3282,95 +3286,95 @@
         <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
         <v>3.75</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>1.25</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>1.91</v>
       </c>
       <c r="Z20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
         <v>15</v>
       </c>
-      <c r="AA20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AJ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>34</v>
       </c>
-      <c r="AE20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8jmUnehd</t>
+          <t>nyaLlHNq</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3390,128 +3394,128 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L21" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.29</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="V21" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="X21" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y21" t="n">
-        <v>6</v>
+        <v>1.83</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>1.83</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF21" t="n">
         <v>34</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AG21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN21" t="n">
         <v>10</v>
       </c>
-      <c r="AF21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>51</v>
-      </c>
       <c r="AO21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dUnH2aVG</t>
+          <t>8jmUnehd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3521,133 +3525,274 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.78</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.37</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.37</v>
-      </c>
+        <v>1.85</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>1.39</v>
+        <v>3.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.82</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>1.62</v>
       </c>
       <c r="AA22" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>80</v>
+        <v>6.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>45</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.3</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.1</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="n">
-        <v>9.25</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>dUnH2aVG</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Komarno</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Zilina</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-25.xlsx
@@ -1407,16 +1407,16 @@
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
         <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1431,34 +1431,34 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1512,10 +1512,10 @@
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -2404,28 +2404,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2458,10 +2458,10 @@
         <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -2479,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>19</v>
@@ -2494,13 +2494,13 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL14" t="n">
         <v>19</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
